--- a/June2021/08.06.2021/Daily Sales Info June-2021.xlsx
+++ b/June2021/08.06.2021/Daily Sales Info June-2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="842" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="842" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="105">
   <si>
     <t>Hello Daffodils</t>
   </si>
@@ -392,6 +392,9 @@
   </si>
   <si>
     <t>Nayem</t>
+  </si>
+  <si>
+    <t>Date:09.06.2021</t>
   </si>
 </sst>
 </file>
@@ -2371,62 +2374,11 @@
     <xf numFmtId="0" fontId="22" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="26" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="26" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="30" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="33" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="34" fillId="25" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="16" fontId="30" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="30" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -2448,6 +2400,57 @@
     </xf>
     <xf numFmtId="0" fontId="30" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="30" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="33" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="34" fillId="25" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -16627,15 +16630,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'9'!D29</f>
-        <v>642008</v>
+        <v>563774</v>
       </c>
       <c r="E4" s="2">
         <f>'9'!E29</f>
-        <v>2400</v>
+        <v>2350</v>
       </c>
       <c r="F4" s="2">
         <f>'9'!F29</f>
-        <v>7080</v>
+        <v>6880</v>
       </c>
       <c r="G4" s="2">
         <f>'9'!G29</f>
@@ -16643,11 +16646,11 @@
       </c>
       <c r="H4" s="2">
         <f>'9'!H29</f>
-        <v>27310</v>
+        <v>27130</v>
       </c>
       <c r="I4" s="2">
         <f>'9'!I29</f>
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="J4" s="2">
         <f>'9'!J29</f>
@@ -16655,7 +16658,7 @@
       </c>
       <c r="K4" s="2">
         <f>'9'!K29</f>
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="L4" s="2">
         <f>'9'!L29</f>
@@ -17805,15 +17808,15 @@
       <c r="C29" s="216"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>642008</v>
+        <v>563774</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>2400</v>
+        <v>2350</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>7080</v>
+        <v>6880</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -17821,11 +17824,11 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>27310</v>
+        <v>27130</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
@@ -17833,7 +17836,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -18177,15 +18180,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'10'!D29</f>
-        <v>642008</v>
+        <v>563774</v>
       </c>
       <c r="E4" s="2">
         <f>'10'!E29</f>
-        <v>2400</v>
+        <v>2350</v>
       </c>
       <c r="F4" s="2">
         <f>'10'!F29</f>
-        <v>7080</v>
+        <v>6880</v>
       </c>
       <c r="G4" s="2">
         <f>'10'!G29</f>
@@ -18193,11 +18196,11 @@
       </c>
       <c r="H4" s="2">
         <f>'10'!H29</f>
-        <v>27310</v>
+        <v>27130</v>
       </c>
       <c r="I4" s="2">
         <f>'10'!I29</f>
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="J4" s="2">
         <f>'10'!J29</f>
@@ -18205,7 +18208,7 @@
       </c>
       <c r="K4" s="2">
         <f>'10'!K29</f>
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="L4" s="2">
         <f>'10'!L29</f>
@@ -19355,15 +19358,15 @@
       <c r="C29" s="216"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>642008</v>
+        <v>563774</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>2400</v>
+        <v>2350</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>7080</v>
+        <v>6880</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -19371,11 +19374,11 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>27310</v>
+        <v>27130</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
@@ -19383,7 +19386,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -19727,15 +19730,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'11'!D29</f>
-        <v>642008</v>
+        <v>563774</v>
       </c>
       <c r="E4" s="2">
         <f>'11'!E29</f>
-        <v>2400</v>
+        <v>2350</v>
       </c>
       <c r="F4" s="2">
         <f>'11'!F29</f>
-        <v>7080</v>
+        <v>6880</v>
       </c>
       <c r="G4" s="2">
         <f>'11'!G29</f>
@@ -19743,11 +19746,11 @@
       </c>
       <c r="H4" s="2">
         <f>'11'!H29</f>
-        <v>27310</v>
+        <v>27130</v>
       </c>
       <c r="I4" s="2">
         <f>'11'!I29</f>
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="J4" s="2">
         <f>'11'!J29</f>
@@ -19755,7 +19758,7 @@
       </c>
       <c r="K4" s="2">
         <f>'11'!K29</f>
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="L4" s="2">
         <f>'11'!L29</f>
@@ -20905,15 +20908,15 @@
       <c r="C29" s="216"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>642008</v>
+        <v>563774</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>2400</v>
+        <v>2350</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>7080</v>
+        <v>6880</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -20921,11 +20924,11 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>27310</v>
+        <v>27130</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
@@ -20933,7 +20936,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -21277,15 +21280,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'12'!D29</f>
-        <v>642008</v>
+        <v>563774</v>
       </c>
       <c r="E4" s="2">
         <f>'12'!E29</f>
-        <v>2400</v>
+        <v>2350</v>
       </c>
       <c r="F4" s="2">
         <f>'12'!F29</f>
-        <v>7080</v>
+        <v>6880</v>
       </c>
       <c r="G4" s="2">
         <f>'12'!G29</f>
@@ -21293,11 +21296,11 @@
       </c>
       <c r="H4" s="2">
         <f>'12'!H29</f>
-        <v>27310</v>
+        <v>27130</v>
       </c>
       <c r="I4" s="2">
         <f>'12'!I29</f>
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="J4" s="2">
         <f>'12'!J29</f>
@@ -21305,7 +21308,7 @@
       </c>
       <c r="K4" s="2">
         <f>'12'!K29</f>
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="L4" s="2">
         <f>'12'!L29</f>
@@ -22455,15 +22458,15 @@
       <c r="C29" s="216"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>642008</v>
+        <v>563774</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>2400</v>
+        <v>2350</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>7080</v>
+        <v>6880</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -22471,11 +22474,11 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>27310</v>
+        <v>27130</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
@@ -22483,7 +22486,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -22827,15 +22830,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'13'!D29</f>
-        <v>642008</v>
+        <v>563774</v>
       </c>
       <c r="E4" s="2">
         <f>'13'!E29</f>
-        <v>2400</v>
+        <v>2350</v>
       </c>
       <c r="F4" s="2">
         <f>'13'!F29</f>
-        <v>7080</v>
+        <v>6880</v>
       </c>
       <c r="G4" s="2">
         <f>'13'!G29</f>
@@ -22843,11 +22846,11 @@
       </c>
       <c r="H4" s="2">
         <f>'13'!H29</f>
-        <v>27310</v>
+        <v>27130</v>
       </c>
       <c r="I4" s="2">
         <f>'13'!I29</f>
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="J4" s="2">
         <f>'13'!J29</f>
@@ -22855,7 +22858,7 @@
       </c>
       <c r="K4" s="2">
         <f>'13'!K29</f>
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="L4" s="2">
         <f>'13'!L29</f>
@@ -24005,15 +24008,15 @@
       <c r="C29" s="216"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>642008</v>
+        <v>563774</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>2400</v>
+        <v>2350</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>7080</v>
+        <v>6880</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -24021,11 +24024,11 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>27310</v>
+        <v>27130</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
@@ -24033,7 +24036,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -24377,15 +24380,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'14'!D29</f>
-        <v>642008</v>
+        <v>563774</v>
       </c>
       <c r="E4" s="2">
         <f>'14'!E29</f>
-        <v>2400</v>
+        <v>2350</v>
       </c>
       <c r="F4" s="2">
         <f>'14'!F29</f>
-        <v>7080</v>
+        <v>6880</v>
       </c>
       <c r="G4" s="2">
         <f>'14'!G29</f>
@@ -24393,11 +24396,11 @@
       </c>
       <c r="H4" s="2">
         <f>'14'!H29</f>
-        <v>27310</v>
+        <v>27130</v>
       </c>
       <c r="I4" s="2">
         <f>'14'!I29</f>
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="J4" s="2">
         <f>'14'!J29</f>
@@ -24405,7 +24408,7 @@
       </c>
       <c r="K4" s="2">
         <f>'14'!K29</f>
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="L4" s="2">
         <f>'14'!L29</f>
@@ -25555,15 +25558,15 @@
       <c r="C29" s="216"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>642008</v>
+        <v>563774</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>2400</v>
+        <v>2350</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>7080</v>
+        <v>6880</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -25571,11 +25574,11 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>27310</v>
+        <v>27130</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
@@ -25583,7 +25586,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -25927,15 +25930,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'15'!D29</f>
-        <v>642008</v>
+        <v>563774</v>
       </c>
       <c r="E4" s="2">
         <f>'15'!E29</f>
-        <v>2400</v>
+        <v>2350</v>
       </c>
       <c r="F4" s="2">
         <f>'15'!F29</f>
-        <v>7080</v>
+        <v>6880</v>
       </c>
       <c r="G4" s="2">
         <f>'15'!G29</f>
@@ -25943,11 +25946,11 @@
       </c>
       <c r="H4" s="2">
         <f>'15'!H29</f>
-        <v>27310</v>
+        <v>27130</v>
       </c>
       <c r="I4" s="2">
         <f>'15'!I29</f>
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="J4" s="2">
         <f>'15'!J29</f>
@@ -25955,7 +25958,7 @@
       </c>
       <c r="K4" s="2">
         <f>'15'!K29</f>
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="L4" s="2">
         <f>'15'!L29</f>
@@ -27105,15 +27108,15 @@
       <c r="C29" s="216"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>642008</v>
+        <v>563774</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>2400</v>
+        <v>2350</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>7080</v>
+        <v>6880</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -27121,11 +27124,11 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>27310</v>
+        <v>27130</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
@@ -27133,7 +27136,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -27477,15 +27480,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'16'!D29</f>
-        <v>642008</v>
+        <v>563774</v>
       </c>
       <c r="E4" s="2">
         <f>'16'!E29</f>
-        <v>2400</v>
+        <v>2350</v>
       </c>
       <c r="F4" s="2">
         <f>'16'!F29</f>
-        <v>7080</v>
+        <v>6880</v>
       </c>
       <c r="G4" s="2">
         <f>'16'!G29</f>
@@ -27493,11 +27496,11 @@
       </c>
       <c r="H4" s="2">
         <f>'16'!H29</f>
-        <v>27310</v>
+        <v>27130</v>
       </c>
       <c r="I4" s="2">
         <f>'16'!I29</f>
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="J4" s="2">
         <f>'16'!J29</f>
@@ -27505,7 +27508,7 @@
       </c>
       <c r="K4" s="2">
         <f>'16'!K29</f>
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="L4" s="2">
         <f>'16'!L29</f>
@@ -28655,15 +28658,15 @@
       <c r="C29" s="216"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>642008</v>
+        <v>563774</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>2400</v>
+        <v>2350</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>7080</v>
+        <v>6880</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -28671,11 +28674,11 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>27310</v>
+        <v>27130</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
@@ -28683,7 +28686,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -29027,15 +29030,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'17'!D29</f>
-        <v>642008</v>
+        <v>563774</v>
       </c>
       <c r="E4" s="2">
         <f>'17'!E29</f>
-        <v>2400</v>
+        <v>2350</v>
       </c>
       <c r="F4" s="2">
         <f>'17'!F29</f>
-        <v>7080</v>
+        <v>6880</v>
       </c>
       <c r="G4" s="2">
         <f>'17'!G29</f>
@@ -29043,11 +29046,11 @@
       </c>
       <c r="H4" s="2">
         <f>'17'!H29</f>
-        <v>27310</v>
+        <v>27130</v>
       </c>
       <c r="I4" s="2">
         <f>'17'!I29</f>
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="J4" s="2">
         <f>'17'!J29</f>
@@ -29055,7 +29058,7 @@
       </c>
       <c r="K4" s="2">
         <f>'17'!K29</f>
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="L4" s="2">
         <f>'17'!L29</f>
@@ -30205,15 +30208,15 @@
       <c r="C29" s="216"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>642008</v>
+        <v>563774</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>2400</v>
+        <v>2350</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>7080</v>
+        <v>6880</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -30221,11 +30224,11 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>27310</v>
+        <v>27130</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
@@ -30233,7 +30236,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -30577,15 +30580,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'18'!D29</f>
-        <v>642008</v>
+        <v>563774</v>
       </c>
       <c r="E4" s="2">
         <f>'18'!E29</f>
-        <v>2400</v>
+        <v>2350</v>
       </c>
       <c r="F4" s="2">
         <f>'18'!F29</f>
-        <v>7080</v>
+        <v>6880</v>
       </c>
       <c r="G4" s="2">
         <f>'18'!G29</f>
@@ -30593,11 +30596,11 @@
       </c>
       <c r="H4" s="2">
         <f>'18'!H29</f>
-        <v>27310</v>
+        <v>27130</v>
       </c>
       <c r="I4" s="2">
         <f>'18'!I29</f>
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="J4" s="2">
         <f>'18'!J29</f>
@@ -30605,7 +30608,7 @@
       </c>
       <c r="K4" s="2">
         <f>'18'!K29</f>
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="L4" s="2">
         <f>'18'!L29</f>
@@ -31755,15 +31758,15 @@
       <c r="C29" s="216"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>642008</v>
+        <v>563774</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>2400</v>
+        <v>2350</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>7080</v>
+        <v>6880</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -31771,11 +31774,11 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>27310</v>
+        <v>27130</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
@@ -31783,7 +31786,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -34009,15 +34012,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'19'!D29</f>
-        <v>642008</v>
+        <v>563774</v>
       </c>
       <c r="E4" s="2">
         <f>'19'!E29</f>
-        <v>2400</v>
+        <v>2350</v>
       </c>
       <c r="F4" s="2">
         <f>'19'!F29</f>
-        <v>7080</v>
+        <v>6880</v>
       </c>
       <c r="G4" s="2">
         <f>'19'!G29</f>
@@ -34025,11 +34028,11 @@
       </c>
       <c r="H4" s="2">
         <f>'19'!H29</f>
-        <v>27310</v>
+        <v>27130</v>
       </c>
       <c r="I4" s="2">
         <f>'19'!I29</f>
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="J4" s="2">
         <f>'19'!J29</f>
@@ -34037,7 +34040,7 @@
       </c>
       <c r="K4" s="2">
         <f>'19'!K29</f>
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="L4" s="2">
         <f>'19'!L29</f>
@@ -35187,15 +35190,15 @@
       <c r="C29" s="216"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>642008</v>
+        <v>563774</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>2400</v>
+        <v>2350</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>7080</v>
+        <v>6880</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -35203,11 +35206,11 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>27310</v>
+        <v>27130</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
@@ -35215,7 +35218,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -35559,15 +35562,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'20'!D29</f>
-        <v>642008</v>
+        <v>563774</v>
       </c>
       <c r="E4" s="2">
         <f>'20'!E29</f>
-        <v>2400</v>
+        <v>2350</v>
       </c>
       <c r="F4" s="2">
         <f>'20'!F29</f>
-        <v>7080</v>
+        <v>6880</v>
       </c>
       <c r="G4" s="2">
         <f>'20'!G29</f>
@@ -35575,11 +35578,11 @@
       </c>
       <c r="H4" s="2">
         <f>'20'!H29</f>
-        <v>27310</v>
+        <v>27130</v>
       </c>
       <c r="I4" s="2">
         <f>'20'!I29</f>
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="J4" s="2">
         <f>'20'!J29</f>
@@ -35587,7 +35590,7 @@
       </c>
       <c r="K4" s="2">
         <f>'20'!K29</f>
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="L4" s="2">
         <f>'20'!L29</f>
@@ -36737,15 +36740,15 @@
       <c r="C29" s="216"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>642008</v>
+        <v>563774</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>2400</v>
+        <v>2350</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>7080</v>
+        <v>6880</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -36753,11 +36756,11 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>27310</v>
+        <v>27130</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
@@ -36765,7 +36768,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -37109,15 +37112,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'21'!D29</f>
-        <v>642008</v>
+        <v>563774</v>
       </c>
       <c r="E4" s="2">
         <f>'21'!E29</f>
-        <v>2400</v>
+        <v>2350</v>
       </c>
       <c r="F4" s="2">
         <f>'21'!F29</f>
-        <v>7080</v>
+        <v>6880</v>
       </c>
       <c r="G4" s="2">
         <f>'21'!G29</f>
@@ -37125,11 +37128,11 @@
       </c>
       <c r="H4" s="2">
         <f>'21'!H29</f>
-        <v>27310</v>
+        <v>27130</v>
       </c>
       <c r="I4" s="2">
         <f>'21'!I29</f>
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="J4" s="2">
         <f>'21'!J29</f>
@@ -37137,7 +37140,7 @@
       </c>
       <c r="K4" s="2">
         <f>'21'!K29</f>
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="L4" s="2">
         <f>'21'!L29</f>
@@ -38287,15 +38290,15 @@
       <c r="C29" s="216"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>642008</v>
+        <v>563774</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>2400</v>
+        <v>2350</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>7080</v>
+        <v>6880</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -38303,11 +38306,11 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>27310</v>
+        <v>27130</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
@@ -38315,7 +38318,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -38659,15 +38662,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'22'!D29</f>
-        <v>642008</v>
+        <v>563774</v>
       </c>
       <c r="E4" s="2">
         <f>'22'!E29</f>
-        <v>2400</v>
+        <v>2350</v>
       </c>
       <c r="F4" s="2">
         <f>'22'!F29</f>
-        <v>7080</v>
+        <v>6880</v>
       </c>
       <c r="G4" s="2">
         <f>'22'!G29</f>
@@ -38675,11 +38678,11 @@
       </c>
       <c r="H4" s="2">
         <f>'22'!H29</f>
-        <v>27310</v>
+        <v>27130</v>
       </c>
       <c r="I4" s="2">
         <f>'22'!I29</f>
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="J4" s="2">
         <f>'22'!J29</f>
@@ -38687,7 +38690,7 @@
       </c>
       <c r="K4" s="2">
         <f>'22'!K29</f>
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="L4" s="2">
         <f>'22'!L29</f>
@@ -39837,15 +39840,15 @@
       <c r="C29" s="216"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>642008</v>
+        <v>563774</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>2400</v>
+        <v>2350</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>7080</v>
+        <v>6880</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -39853,11 +39856,11 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>27310</v>
+        <v>27130</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
@@ -39865,7 +39868,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -40209,15 +40212,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'23'!D29</f>
-        <v>642008</v>
+        <v>563774</v>
       </c>
       <c r="E4" s="2">
         <f>'23'!E29</f>
-        <v>2400</v>
+        <v>2350</v>
       </c>
       <c r="F4" s="2">
         <f>'23'!F29</f>
-        <v>7080</v>
+        <v>6880</v>
       </c>
       <c r="G4" s="2">
         <f>'23'!G29</f>
@@ -40225,11 +40228,11 @@
       </c>
       <c r="H4" s="2">
         <f>'23'!H29</f>
-        <v>27310</v>
+        <v>27130</v>
       </c>
       <c r="I4" s="2">
         <f>'23'!I29</f>
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="J4" s="2">
         <f>'23'!J29</f>
@@ -40237,7 +40240,7 @@
       </c>
       <c r="K4" s="2">
         <f>'23'!K29</f>
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="L4" s="2">
         <f>'23'!L29</f>
@@ -41387,15 +41390,15 @@
       <c r="C29" s="216"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>642008</v>
+        <v>563774</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>2400</v>
+        <v>2350</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>7080</v>
+        <v>6880</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -41403,11 +41406,11 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>27310</v>
+        <v>27130</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
@@ -41415,7 +41418,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -41759,15 +41762,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'24'!D29</f>
-        <v>642008</v>
+        <v>563774</v>
       </c>
       <c r="E4" s="2">
         <f>'24'!E29</f>
-        <v>2400</v>
+        <v>2350</v>
       </c>
       <c r="F4" s="2">
         <f>'24'!F29</f>
-        <v>7080</v>
+        <v>6880</v>
       </c>
       <c r="G4" s="2">
         <f>'24'!G29</f>
@@ -41775,11 +41778,11 @@
       </c>
       <c r="H4" s="2">
         <f>'24'!H29</f>
-        <v>27310</v>
+        <v>27130</v>
       </c>
       <c r="I4" s="2">
         <f>'24'!I29</f>
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="J4" s="2">
         <f>'24'!J29</f>
@@ -41787,7 +41790,7 @@
       </c>
       <c r="K4" s="2">
         <f>'24'!K29</f>
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="L4" s="2">
         <f>'24'!L29</f>
@@ -42937,15 +42940,15 @@
       <c r="C29" s="216"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>642008</v>
+        <v>563774</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>2400</v>
+        <v>2350</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>7080</v>
+        <v>6880</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -42953,11 +42956,11 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>27310</v>
+        <v>27130</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
@@ -42965,7 +42968,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -43309,15 +43312,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'25'!D29</f>
-        <v>642008</v>
+        <v>563774</v>
       </c>
       <c r="E4" s="2">
         <f>'25'!E29</f>
-        <v>2400</v>
+        <v>2350</v>
       </c>
       <c r="F4" s="2">
         <f>'25'!F29</f>
-        <v>7080</v>
+        <v>6880</v>
       </c>
       <c r="G4" s="2">
         <f>'25'!G29</f>
@@ -43325,11 +43328,11 @@
       </c>
       <c r="H4" s="2">
         <f>'25'!H29</f>
-        <v>27310</v>
+        <v>27130</v>
       </c>
       <c r="I4" s="2">
         <f>'25'!I29</f>
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="J4" s="2">
         <f>'25'!J29</f>
@@ -43337,7 +43340,7 @@
       </c>
       <c r="K4" s="2">
         <f>'25'!K29</f>
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="L4" s="2">
         <f>'25'!L29</f>
@@ -44487,15 +44490,15 @@
       <c r="C29" s="216"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>642008</v>
+        <v>563774</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>2400</v>
+        <v>2350</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>7080</v>
+        <v>6880</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -44503,11 +44506,11 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>27310</v>
+        <v>27130</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
@@ -44515,7 +44518,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -44859,15 +44862,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'26'!D29</f>
-        <v>642008</v>
+        <v>563774</v>
       </c>
       <c r="E4" s="2">
         <f>'26'!E29</f>
-        <v>2400</v>
+        <v>2350</v>
       </c>
       <c r="F4" s="2">
         <f>'26'!F29</f>
-        <v>7080</v>
+        <v>6880</v>
       </c>
       <c r="G4" s="2">
         <f>'26'!G29</f>
@@ -44875,11 +44878,11 @@
       </c>
       <c r="H4" s="2">
         <f>'26'!H29</f>
-        <v>27310</v>
+        <v>27130</v>
       </c>
       <c r="I4" s="2">
         <f>'26'!I29</f>
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="J4" s="2">
         <f>'26'!J29</f>
@@ -44887,7 +44890,7 @@
       </c>
       <c r="K4" s="2">
         <f>'26'!K29</f>
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="L4" s="2">
         <f>'26'!L29</f>
@@ -46037,15 +46040,15 @@
       <c r="C29" s="216"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>642008</v>
+        <v>563774</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>2400</v>
+        <v>2350</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>7080</v>
+        <v>6880</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -46053,11 +46056,11 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>27310</v>
+        <v>27130</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
@@ -46065,7 +46068,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -46409,15 +46412,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'27'!D29</f>
-        <v>642008</v>
+        <v>563774</v>
       </c>
       <c r="E4" s="2">
         <f>'27'!E29</f>
-        <v>2400</v>
+        <v>2350</v>
       </c>
       <c r="F4" s="2">
         <f>'27'!F29</f>
-        <v>7080</v>
+        <v>6880</v>
       </c>
       <c r="G4" s="2">
         <f>'27'!G29</f>
@@ -46425,11 +46428,11 @@
       </c>
       <c r="H4" s="2">
         <f>'27'!H29</f>
-        <v>27310</v>
+        <v>27130</v>
       </c>
       <c r="I4" s="2">
         <f>'27'!I29</f>
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="J4" s="2">
         <f>'27'!J29</f>
@@ -46437,7 +46440,7 @@
       </c>
       <c r="K4" s="2">
         <f>'27'!K29</f>
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="L4" s="2">
         <f>'27'!L29</f>
@@ -47587,15 +47590,15 @@
       <c r="C29" s="216"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>642008</v>
+        <v>563774</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>2400</v>
+        <v>2350</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>7080</v>
+        <v>6880</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -47603,11 +47606,11 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>27310</v>
+        <v>27130</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
@@ -47615,7 +47618,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -47959,15 +47962,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'28'!D29</f>
-        <v>642008</v>
+        <v>563774</v>
       </c>
       <c r="E4" s="2">
         <f>'28'!E29</f>
-        <v>2400</v>
+        <v>2350</v>
       </c>
       <c r="F4" s="2">
         <f>'28'!F29</f>
-        <v>7080</v>
+        <v>6880</v>
       </c>
       <c r="G4" s="2">
         <f>'28'!G29</f>
@@ -47975,11 +47978,11 @@
       </c>
       <c r="H4" s="2">
         <f>'28'!H29</f>
-        <v>27310</v>
+        <v>27130</v>
       </c>
       <c r="I4" s="2">
         <f>'28'!I29</f>
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="J4" s="2">
         <f>'28'!J29</f>
@@ -47987,7 +47990,7 @@
       </c>
       <c r="K4" s="2">
         <f>'28'!K29</f>
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="L4" s="2">
         <f>'28'!L29</f>
@@ -49137,15 +49140,15 @@
       <c r="C29" s="216"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>642008</v>
+        <v>563774</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>2400</v>
+        <v>2350</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>7080</v>
+        <v>6880</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -49153,11 +49156,11 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>27310</v>
+        <v>27130</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
@@ -49165,7 +49168,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -51227,15 +51230,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'29'!D29</f>
-        <v>642008</v>
+        <v>563774</v>
       </c>
       <c r="E4" s="2">
         <f>'29'!E29</f>
-        <v>2400</v>
+        <v>2350</v>
       </c>
       <c r="F4" s="2">
         <f>'29'!F29</f>
-        <v>7080</v>
+        <v>6880</v>
       </c>
       <c r="G4" s="2">
         <f>'29'!G29</f>
@@ -51243,11 +51246,11 @@
       </c>
       <c r="H4" s="2">
         <f>'29'!H29</f>
-        <v>27310</v>
+        <v>27130</v>
       </c>
       <c r="I4" s="2">
         <f>'29'!I29</f>
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="J4" s="2">
         <f>'29'!J29</f>
@@ -51255,7 +51258,7 @@
       </c>
       <c r="K4" s="2">
         <f>'29'!K29</f>
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="L4" s="2">
         <f>'29'!L29</f>
@@ -52405,15 +52408,15 @@
       <c r="C29" s="216"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>642008</v>
+        <v>563774</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>2400</v>
+        <v>2350</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>7080</v>
+        <v>6880</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -52421,11 +52424,11 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>27310</v>
+        <v>27130</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
@@ -52433,7 +52436,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -52777,15 +52780,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'30'!D29</f>
-        <v>642008</v>
+        <v>563774</v>
       </c>
       <c r="E4" s="2">
         <f>'30'!E29</f>
-        <v>2400</v>
+        <v>2350</v>
       </c>
       <c r="F4" s="2">
         <f>'30'!F29</f>
-        <v>7080</v>
+        <v>6880</v>
       </c>
       <c r="G4" s="2">
         <f>'30'!G29</f>
@@ -52793,11 +52796,11 @@
       </c>
       <c r="H4" s="2">
         <f>'30'!H29</f>
-        <v>27310</v>
+        <v>27130</v>
       </c>
       <c r="I4" s="2">
         <f>'30'!I29</f>
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="J4" s="2">
         <f>'30'!J29</f>
@@ -52805,7 +52808,7 @@
       </c>
       <c r="K4" s="2">
         <f>'30'!K29</f>
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="L4" s="2">
         <f>'30'!L29</f>
@@ -53955,15 +53958,15 @@
       <c r="C29" s="216"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>642008</v>
+        <v>563774</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>2400</v>
+        <v>2350</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>7080</v>
+        <v>6880</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -53971,11 +53974,11 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>27310</v>
+        <v>27130</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
@@ -53983,7 +53986,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -54499,7 +54502,7 @@
       </c>
       <c r="D7" s="21">
         <f>'1'!D9+'2'!D7+'3'!D7+'4'!D7+'5'!D7+'6'!D7+'7'!D7+'8'!D7+'9'!D7+'10'!D7+'11'!D7+'12'!D7+'13'!D7+'14'!D7+'15'!D7+'16'!D7+'17'!D7+'18'!D7+'19'!D7+'20'!D7+'21'!D7+'22'!D7+'23'!D7+'24'!D7+'25'!D7+'26'!D7+'27'!D7+'28'!D7+'29'!D7+'30'!D7+'31'!D7</f>
-        <v>59207</v>
+        <v>70828</v>
       </c>
       <c r="E7" s="21">
         <f>'1'!E9+'2'!E7+'3'!E7+'4'!E7+'5'!E7+'6'!E7+'7'!E7+'8'!E7+'9'!E7+'10'!E7+'11'!E7+'12'!E7+'13'!E7+'14'!E7+'15'!E7+'16'!E7+'17'!E7+'18'!E7+'19'!E7+'20'!E7+'21'!E7+'22'!E7+'23'!E7+'24'!E7+'25'!E7+'26'!E7+'27'!E7+'28'!E7+'29'!E7+'30'!E7+'31'!E7</f>
@@ -54527,7 +54530,7 @@
       </c>
       <c r="K7" s="21">
         <f>'1'!K9+'2'!K7+'3'!K7+'4'!K7+'5'!K7+'6'!K7+'7'!K7+'8'!K7+'9'!K7+'10'!K7+'11'!K7+'12'!K7+'13'!K7+'14'!K7+'15'!K7+'16'!K7+'17'!K7+'18'!K7+'19'!K7+'20'!K7+'21'!K7+'22'!K7+'23'!K7+'24'!K7+'25'!K7+'26'!K7+'27'!K7+'28'!K7+'29'!K7+'30'!K7+'31'!K7</f>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="L7" s="21">
         <f>'1'!L9+'2'!L7+'3'!L7+'4'!L7+'5'!L7+'6'!L7+'7'!L7+'8'!L7+'9'!L7+'10'!L7+'11'!L7+'12'!L7+'13'!L7+'14'!L7+'15'!L7+'16'!L7+'17'!L7+'18'!L7+'19'!L7+'20'!L7+'21'!L7+'22'!L7+'23'!L7+'24'!L7+'25'!L7+'26'!L7+'27'!L7+'28'!L7+'29'!L7+'30'!L7+'31'!L7</f>
@@ -54535,32 +54538,32 @@
       </c>
       <c r="M7" s="20">
         <f>D7+E7*20+F7*10+G7*9+H7*9</f>
-        <v>66717</v>
+        <v>78338</v>
       </c>
       <c r="N7" s="24">
         <f>D7+E7*20+F7*10+G7*9+H7*9+I7*191+J7*191+K7*182+L7*100</f>
-        <v>75959</v>
+        <v>88490</v>
       </c>
       <c r="O7" s="25">
         <f>M7*2.75%</f>
-        <v>1834.7175</v>
+        <v>2154.2950000000001</v>
       </c>
       <c r="P7" s="26"/>
       <c r="Q7" s="26">
         <f>'1'!Q9+'2'!Q7+'3'!Q7+'4'!Q7+'5'!Q7+'6'!R7+'7'!Q7+'8'!Q7+'9'!Q7+'10'!Q7+'11'!Q7+'12'!Q7+'13'!Q7+'14'!Q7+'15'!Q7+'16'!Q7+'17'!Q7+'18'!Q7+'19'!Q7+'20'!Q7+'21'!Q7+'22'!Q7+'23'!Q7+'24'!Q7+'25'!Q7+'26'!Q7+'27'!Q7+'28'!Q7+'29'!Q7+'30'!Q7+'31'!Q7</f>
-        <v>625</v>
+        <v>727</v>
       </c>
       <c r="R7" s="24">
         <f>M7-(M7*2.75%)+I7*191+J7*191+K7*182+L7*100-Q7</f>
-        <v>73499.282500000001</v>
+        <v>85608.705000000002</v>
       </c>
       <c r="S7" s="25">
         <f>M7*0.95%</f>
-        <v>633.81150000000002</v>
+        <v>744.21100000000001</v>
       </c>
       <c r="T7" s="116">
         <f>S7-Q7</f>
-        <v>8.8115000000000236</v>
+        <v>17.211000000000013</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -54651,7 +54654,7 @@
       </c>
       <c r="D9" s="21">
         <f>'1'!D11+'2'!D9+'3'!D9+'4'!D9+'5'!D9+'6'!D9+'7'!D9+'8'!D9+'9'!D9+'10'!D9+'11'!D9+'12'!D9+'13'!D9+'14'!D9+'15'!D9+'16'!D9+'17'!D9+'18'!D9+'19'!D9+'20'!D9+'21'!D9+'22'!D9+'23'!D9+'24'!D9+'25'!D9+'26'!D9+'27'!D9+'28'!D9+'29'!D9+'30'!D9+'31'!D9</f>
-        <v>122993</v>
+        <v>140239</v>
       </c>
       <c r="E9" s="21">
         <f>'1'!E11+'2'!E9+'3'!E9+'4'!E9+'5'!E9+'6'!E9+'7'!E9+'8'!E9+'9'!E9+'10'!E9+'11'!E9+'12'!E9+'13'!E9+'14'!E9+'15'!E9+'16'!E9+'17'!E9+'18'!E9+'19'!E9+'20'!E9+'21'!E9+'22'!E9+'23'!E9+'24'!E9+'25'!E9+'26'!E9+'27'!E9+'28'!E9+'29'!E9+'30'!E9+'31'!E9</f>
@@ -54659,7 +54662,7 @@
       </c>
       <c r="F9" s="21">
         <f>'1'!F11+'2'!F9+'3'!F9+'4'!F9+'5'!F9+'6'!F9+'7'!F9+'8'!F9+'9'!F9+'10'!F9+'11'!F9+'12'!F9+'13'!F9+'14'!F9+'15'!F9+'16'!F9+'17'!F9+'18'!F9+'19'!F9+'20'!F9+'21'!F9+'22'!F9+'23'!F9+'24'!F9+'25'!F9+'26'!F9+'27'!F9+'28'!F9+'29'!F9+'30'!F9+'31'!F9</f>
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="G9" s="21">
         <f>'1'!G11+'2'!G9+'3'!G9+'4'!G9+'5'!G9+'6'!G9+'7'!G9+'8'!G9+'9'!G9+'10'!G9+'11'!G9+'12'!G9+'13'!G9+'14'!G9+'15'!G9+'16'!G9+'17'!G9+'18'!G9+'19'!G9+'20'!G9+'21'!G9+'22'!G9+'23'!G9+'24'!G9+'25'!G9+'26'!G9+'27'!G9+'28'!G9+'29'!G9+'30'!G9+'31'!G9</f>
@@ -54671,7 +54674,7 @@
       </c>
       <c r="I9" s="21">
         <f>'1'!I11+'2'!I9+'3'!I9+'4'!I9+'5'!I9+'6'!I9+'7'!I9+'8'!I9+'9'!I9+'10'!I9+'11'!I9+'12'!I9+'13'!I9+'14'!I9+'15'!I9+'16'!I9+'17'!I9+'18'!I9+'19'!I9+'20'!I9+'21'!I9+'22'!I9+'23'!I9+'24'!I9+'25'!I9+'26'!I9+'27'!I9+'28'!I9+'29'!I9+'30'!I9+'31'!I9</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J9" s="21">
         <f>'1'!J11+'2'!J9+'3'!J9+'4'!J9+'5'!J9+'6'!J9+'7'!J9+'8'!J9+'9'!J9+'10'!J9+'11'!J9+'12'!J9+'13'!J9+'14'!J9+'15'!J9+'16'!J9+'17'!J9+'18'!J9+'19'!J9+'20'!J9+'21'!J9+'22'!J9+'23'!J9+'24'!J9+'25'!J9+'26'!J9+'27'!J9+'28'!J9+'29'!J9+'30'!J9+'31'!J9</f>
@@ -54687,32 +54690,32 @@
       </c>
       <c r="M9" s="20">
         <f t="shared" si="0"/>
-        <v>124643</v>
+        <v>142889</v>
       </c>
       <c r="N9" s="24">
         <f t="shared" si="1"/>
-        <v>129182</v>
+        <v>147810</v>
       </c>
       <c r="O9" s="25">
         <f t="shared" si="2"/>
-        <v>3427.6824999999999</v>
+        <v>3929.4475000000002</v>
       </c>
       <c r="P9" s="26"/>
       <c r="Q9" s="26">
         <f>'1'!Q11+'2'!Q9+'3'!Q9+'4'!Q9+'5'!Q9+'6'!R9+'7'!Q9+'8'!Q9+'9'!Q9+'10'!Q9+'11'!Q9+'12'!Q9+'13'!Q9+'14'!Q9+'15'!Q9+'16'!Q9+'17'!Q9+'18'!Q9+'19'!Q9+'20'!Q9+'21'!Q9+'22'!Q9+'23'!Q9+'24'!Q9+'25'!Q9+'26'!Q9+'27'!Q9+'28'!Q9+'29'!Q9+'30'!Q9+'31'!Q9</f>
-        <v>984</v>
+        <v>1150</v>
       </c>
       <c r="R9" s="24">
         <f t="shared" si="3"/>
-        <v>124770.3175</v>
+        <v>142730.55249999999</v>
       </c>
       <c r="S9" s="25">
         <f t="shared" si="4"/>
-        <v>1184.1085</v>
+        <v>1357.4455</v>
       </c>
       <c r="T9" s="116">
         <f t="shared" si="5"/>
-        <v>200.10850000000005</v>
+        <v>207.44550000000004</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -55031,7 +55034,7 @@
       </c>
       <c r="D14" s="21">
         <f>'1'!D16+'2'!D14+'3'!D14+'4'!D14+'5'!D14+'6'!D14+'7'!D14+'8'!D14+'9'!D14+'10'!D14+'11'!D14+'12'!D14+'13'!D14+'14'!D14+'15'!D14+'16'!D14+'17'!D14+'18'!D14+'19'!D14+'20'!D14+'21'!D14+'22'!D14+'23'!D14+'24'!D14+'25'!D14+'26'!D14+'27'!D14+'28'!D14+'29'!D14+'30'!D14+'31'!D14</f>
-        <v>61145</v>
+        <v>80721</v>
       </c>
       <c r="E14" s="21">
         <f>'1'!E16+'2'!E14+'3'!E14+'4'!E14+'5'!E14+'6'!E14+'7'!E14+'8'!E14+'9'!E14+'10'!E14+'11'!E14+'12'!E14+'13'!E14+'14'!E14+'15'!E14+'16'!E14+'17'!E14+'18'!E14+'19'!E14+'20'!E14+'21'!E14+'22'!E14+'23'!E14+'24'!E14+'25'!E14+'26'!E14+'27'!E14+'28'!E14+'29'!E14+'30'!E14+'31'!E14</f>
@@ -55067,32 +55070,32 @@
       </c>
       <c r="M14" s="20">
         <f t="shared" si="0"/>
-        <v>63395</v>
+        <v>82971</v>
       </c>
       <c r="N14" s="24">
         <f t="shared" si="1"/>
-        <v>79742</v>
+        <v>99318</v>
       </c>
       <c r="O14" s="25">
         <f t="shared" si="2"/>
-        <v>1743.3625</v>
+        <v>2281.7024999999999</v>
       </c>
       <c r="P14" s="26"/>
       <c r="Q14" s="26">
         <f>'1'!Q16+'2'!Q14+'3'!Q14+'4'!Q14+'5'!Q14+'6'!R14+'7'!Q14+'8'!Q14+'9'!Q14+'10'!Q14+'11'!Q14+'12'!Q14+'13'!Q14+'14'!Q14+'15'!Q14+'16'!Q14+'17'!Q14+'18'!Q14+'19'!Q14+'20'!Q14+'21'!Q14+'22'!Q14+'23'!Q14+'24'!Q14+'25'!Q14+'26'!Q14+'27'!Q14+'28'!Q14+'29'!Q14+'30'!Q14+'31'!Q14</f>
-        <v>961</v>
+        <v>1099</v>
       </c>
       <c r="R14" s="24">
         <f t="shared" si="3"/>
-        <v>77037.637499999997</v>
+        <v>95937.297500000001</v>
       </c>
       <c r="S14" s="25">
         <f t="shared" si="4"/>
-        <v>602.25249999999994</v>
+        <v>788.22450000000003</v>
       </c>
       <c r="T14" s="116">
         <f t="shared" si="5"/>
-        <v>-358.74750000000006</v>
+        <v>-310.77549999999997</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -55183,15 +55186,15 @@
       </c>
       <c r="D16" s="21">
         <f>'1'!D18+'2'!D16+'3'!D16+'4'!D16+'5'!D16+'6'!D16+'7'!D16+'8'!D16+'9'!D16+'10'!D16+'11'!D16+'12'!D16+'13'!D16+'14'!D16+'15'!D16+'16'!D16+'17'!D16+'18'!D16+'19'!D16+'20'!D16+'21'!D16+'22'!D16+'23'!D16+'24'!D16+'25'!D16+'26'!D16+'27'!D16+'28'!D16+'29'!D16+'30'!D16+'31'!D16</f>
-        <v>99940</v>
+        <v>107602</v>
       </c>
       <c r="E16" s="21">
         <f>'1'!E18+'2'!E16+'3'!E16+'4'!E16+'5'!E16+'6'!E16+'7'!E16+'8'!E16+'9'!E16+'10'!E16+'11'!E16+'12'!E16+'13'!E16+'14'!E16+'15'!E16+'16'!E16+'17'!E16+'18'!E16+'19'!E16+'20'!E16+'21'!E16+'22'!E16+'23'!E16+'24'!E16+'25'!E16+'26'!E16+'27'!E16+'28'!E16+'29'!E16+'30'!E16+'31'!E16</f>
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="F16" s="21">
         <f>'1'!F18+'2'!F16+'3'!F16+'4'!F16+'5'!F16+'6'!F16+'7'!F16+'8'!F16+'9'!F16+'10'!F16+'11'!F16+'12'!F16+'13'!F16+'14'!F16+'15'!F16+'16'!F16+'17'!F16+'18'!F16+'19'!F16+'20'!F16+'21'!F16+'22'!F16+'23'!F16+'24'!F16+'25'!F16+'26'!F16+'27'!F16+'28'!F16+'29'!F16+'30'!F16+'31'!F16</f>
-        <v>220</v>
+        <v>320</v>
       </c>
       <c r="G16" s="21">
         <f>'1'!G18+'2'!G16+'3'!G16+'4'!G16+'5'!G16+'6'!G16+'7'!G16+'8'!G16+'9'!G16+'10'!G16+'11'!G16+'12'!G16+'13'!G16+'14'!G16+'15'!G16+'16'!G16+'17'!G16+'18'!G16+'19'!G16+'20'!G16+'21'!G16+'22'!G16+'23'!G16+'24'!G16+'25'!G16+'26'!G16+'27'!G16+'28'!G16+'29'!G16+'30'!G16+'31'!G16</f>
@@ -55199,7 +55202,7 @@
       </c>
       <c r="H16" s="21">
         <f>'1'!H18+'2'!H16+'3'!H16+'4'!H16+'5'!H16+'6'!H16+'7'!H16+'8'!H16+'9'!H16+'10'!H16+'11'!H16+'12'!H16+'13'!H16+'14'!H16+'15'!H16+'16'!H16+'17'!H16+'18'!H16+'19'!H16+'20'!H16+'21'!H16+'22'!H16+'23'!H16+'24'!H16+'25'!H16+'26'!H16+'27'!H16+'28'!H16+'29'!H16+'30'!H16+'31'!H16</f>
-        <v>520</v>
+        <v>700</v>
       </c>
       <c r="I16" s="21">
         <f>'1'!I18+'2'!I16+'3'!I16+'4'!I16+'5'!I16+'6'!I16+'7'!I16+'8'!I16+'9'!I16+'10'!I16+'11'!I16+'12'!I16+'13'!I16+'14'!I16+'15'!I16+'16'!I16+'17'!I16+'18'!I16+'19'!I16+'20'!I16+'21'!I16+'22'!I16+'23'!I16+'24'!I16+'25'!I16+'26'!I16+'27'!I16+'28'!I16+'29'!I16+'30'!I16+'31'!I16</f>
@@ -55219,32 +55222,32 @@
       </c>
       <c r="M16" s="20">
         <f t="shared" si="0"/>
-        <v>109620</v>
+        <v>120902</v>
       </c>
       <c r="N16" s="24">
         <f t="shared" si="1"/>
-        <v>121754</v>
+        <v>133036</v>
       </c>
       <c r="O16" s="25">
         <f t="shared" si="2"/>
-        <v>3014.55</v>
+        <v>3324.8049999999998</v>
       </c>
       <c r="P16" s="26"/>
       <c r="Q16" s="26">
         <f>'1'!Q18+'2'!Q16+'3'!Q16+'4'!Q16+'5'!Q16+'6'!R16+'7'!Q16+'8'!Q16+'9'!Q16+'10'!Q16+'11'!Q16+'12'!Q16+'13'!Q16+'14'!Q16+'15'!Q16+'16'!Q16+'17'!Q16+'18'!Q16+'19'!Q16+'20'!Q16+'21'!Q16+'22'!Q16+'23'!Q16+'24'!Q16+'25'!Q16+'26'!Q16+'27'!Q16+'28'!Q16+'29'!Q16+'30'!Q16+'31'!Q16</f>
-        <v>694</v>
+        <v>794</v>
       </c>
       <c r="R16" s="24">
         <f t="shared" si="3"/>
-        <v>118045.45</v>
+        <v>128917.19500000001</v>
       </c>
       <c r="S16" s="25">
         <f t="shared" si="4"/>
-        <v>1041.3899999999999</v>
+        <v>1148.569</v>
       </c>
       <c r="T16" s="116">
         <f t="shared" si="5"/>
-        <v>347.38999999999987</v>
+        <v>354.56899999999996</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -55411,7 +55414,7 @@
       </c>
       <c r="D19" s="21">
         <f>'1'!D21+'2'!D19+'3'!D19+'4'!D19+'5'!D19+'6'!D19+'7'!D19+'8'!D19+'9'!D19+'10'!D19+'11'!D19+'12'!D19+'13'!D19+'14'!D19+'15'!D19+'16'!D19+'17'!D19+'18'!D19+'19'!D19+'20'!D19+'21'!D19+'22'!D19+'23'!D19+'24'!D19+'25'!D19+'26'!D19+'27'!D19+'28'!D19+'29'!D19+'30'!D19+'31'!D19</f>
-        <v>59460</v>
+        <v>67375</v>
       </c>
       <c r="E19" s="21">
         <f>'1'!E21+'2'!E19+'3'!E19+'4'!E19+'5'!E19+'6'!E19+'7'!E19+'8'!E19+'9'!E19+'10'!E19+'11'!E19+'12'!E19+'13'!E19+'14'!E19+'15'!E19+'16'!E19+'17'!E19+'18'!E19+'19'!E19+'20'!E19+'21'!E19+'22'!E19+'23'!E19+'24'!E19+'25'!E19+'26'!E19+'27'!E19+'28'!E19+'29'!E19+'30'!E19+'31'!E19</f>
@@ -55447,32 +55450,32 @@
       </c>
       <c r="M19" s="20">
         <f t="shared" si="0"/>
-        <v>64180</v>
+        <v>72095</v>
       </c>
       <c r="N19" s="24">
         <f t="shared" si="1"/>
-        <v>67000</v>
+        <v>74915</v>
       </c>
       <c r="O19" s="25">
         <f t="shared" si="2"/>
-        <v>1764.95</v>
+        <v>1982.6125</v>
       </c>
       <c r="P19" s="26"/>
       <c r="Q19" s="26">
         <f>'1'!Q21+'2'!Q19+'3'!Q19+'4'!Q19+'5'!Q19+'6'!R19+'7'!Q19+'8'!Q19+'9'!Q19+'10'!Q19+'11'!Q19+'12'!Q19+'13'!Q19+'14'!Q19+'15'!Q19+'16'!Q19+'17'!Q19+'18'!Q19+'19'!Q19+'20'!Q19+'21'!Q19+'22'!Q19+'23'!Q19+'24'!Q19+'25'!Q19+'26'!Q19+'27'!Q19+'28'!Q19+'29'!Q19+'30'!Q19+'31'!Q19</f>
-        <v>729</v>
+        <v>826</v>
       </c>
       <c r="R19" s="24">
         <f t="shared" si="3"/>
-        <v>64506.05</v>
+        <v>72106.387499999997</v>
       </c>
       <c r="S19" s="25">
         <f t="shared" si="4"/>
-        <v>609.71</v>
+        <v>684.90250000000003</v>
       </c>
       <c r="T19" s="116">
         <f t="shared" si="5"/>
-        <v>-119.28999999999996</v>
+        <v>-141.09749999999997</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -55639,7 +55642,7 @@
       </c>
       <c r="D22" s="21">
         <f>'1'!D24+'2'!D22+'3'!D22+'4'!D22+'5'!D22+'6'!D22+'7'!D22+'8'!D22+'9'!D22+'10'!D22+'11'!D22+'12'!D22+'13'!D22+'14'!D22+'15'!D22+'16'!D22+'17'!D22+'18'!D22+'19'!D22+'20'!D22+'21'!D22+'22'!D22+'23'!D22+'24'!D22+'25'!D22+'26'!D22+'27'!D22+'28'!D22+'29'!D22+'30'!D22+'31'!D22</f>
-        <v>102251</v>
+        <v>116465</v>
       </c>
       <c r="E22" s="21">
         <f>'1'!E24+'2'!E22+'3'!E22+'4'!E22+'5'!E22+'6'!E22+'7'!E22+'8'!E22+'9'!E22+'10'!E22+'11'!E22+'12'!E22+'13'!E22+'14'!E22+'15'!E22+'16'!E22+'17'!E22+'18'!E22+'19'!E22+'20'!E22+'21'!E22+'22'!E22+'23'!E22+'24'!E22+'25'!E22+'26'!E22+'27'!E22+'28'!E22+'29'!E22+'30'!E22+'31'!E22</f>
@@ -55659,7 +55662,7 @@
       </c>
       <c r="I22" s="21">
         <f>'1'!I24+'2'!I22+'3'!I22+'4'!I22+'5'!I22+'6'!I22+'7'!I22+'8'!I22+'9'!I22+'10'!I22+'11'!I22+'12'!I22+'13'!I22+'14'!I22+'15'!I22+'16'!I22+'17'!I22+'18'!I22+'19'!I22+'20'!I22+'21'!I22+'22'!I22+'23'!I22+'24'!I22+'25'!I22+'26'!I22+'27'!I22+'28'!I22+'29'!I22+'30'!I22+'31'!I22</f>
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="J22" s="21">
         <f>'1'!J24+'2'!J22+'3'!J22+'4'!J22+'5'!J22+'6'!J22+'7'!J22+'8'!J22+'9'!J22+'10'!J22+'11'!J22+'12'!J22+'13'!J22+'14'!J22+'15'!J22+'16'!J22+'17'!J22+'18'!J22+'19'!J22+'20'!J22+'21'!J22+'22'!J22+'23'!J22+'24'!J22+'25'!J22+'26'!J22+'27'!J22+'28'!J22+'29'!J22+'30'!J22+'31'!J22</f>
@@ -55667,7 +55670,7 @@
       </c>
       <c r="K22" s="21">
         <f>'1'!K24+'2'!K22+'3'!K22+'4'!K22+'5'!K22+'6'!K22+'7'!K22+'8'!K22+'9'!K22+'10'!K22+'11'!K22+'12'!K22+'13'!K22+'14'!K22+'15'!K22+'16'!K22+'17'!K22+'18'!K22+'19'!K22+'20'!K22+'21'!K22+'22'!K22+'23'!K22+'24'!K22+'25'!K22+'26'!K22+'27'!K22+'28'!K22+'29'!K22+'30'!K22+'31'!K22</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L22" s="21">
         <f>'1'!L24+'2'!L22+'3'!L22+'4'!L22+'5'!L22+'6'!L22+'7'!L22+'8'!L22+'9'!L22+'10'!L22+'11'!L22+'12'!L22+'13'!L22+'14'!L22+'15'!L22+'16'!L22+'17'!L22+'18'!L22+'19'!L22+'20'!L22+'21'!L22+'22'!L22+'23'!L22+'24'!L22+'25'!L22+'26'!L22+'27'!L22+'28'!L22+'29'!L22+'30'!L22+'31'!L22</f>
@@ -55675,32 +55678,32 @@
       </c>
       <c r="M22" s="20">
         <f t="shared" si="0"/>
-        <v>120601</v>
+        <v>134815</v>
       </c>
       <c r="N22" s="24">
         <f t="shared" si="1"/>
-        <v>125668</v>
+        <v>142156</v>
       </c>
       <c r="O22" s="25">
         <f t="shared" si="2"/>
-        <v>3316.5275000000001</v>
+        <v>3707.4124999999999</v>
       </c>
       <c r="P22" s="26"/>
       <c r="Q22" s="26">
         <f>'1'!Q24+'2'!Q22+'3'!Q22+'4'!Q22+'5'!Q22+'6'!R22+'7'!Q22+'8'!Q22+'9'!Q22+'10'!Q22+'11'!Q22+'12'!Q22+'13'!Q22+'14'!Q22+'15'!Q22+'16'!Q22+'17'!Q22+'18'!Q22+'19'!Q22+'20'!Q22+'21'!Q22+'22'!Q22+'23'!Q22+'24'!Q22+'25'!Q22+'26'!Q22+'27'!Q22+'28'!Q22+'29'!Q22+'30'!Q22+'31'!Q22</f>
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="R22" s="24">
         <f t="shared" si="3"/>
-        <v>121451.4725</v>
+        <v>137448.58749999999</v>
       </c>
       <c r="S22" s="25">
         <f t="shared" si="4"/>
-        <v>1145.7094999999999</v>
+        <v>1280.7425000000001</v>
       </c>
       <c r="T22" s="116">
         <f t="shared" si="5"/>
-        <v>245.70949999999993</v>
+        <v>280.74250000000006</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -56091,15 +56094,15 @@
       <c r="C28" s="234"/>
       <c r="D28" s="98">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
-        <v>1288941</v>
+        <v>1367175</v>
       </c>
       <c r="E28" s="99">
         <f t="shared" si="6"/>
-        <v>2370</v>
+        <v>2420</v>
       </c>
       <c r="F28" s="99">
         <f t="shared" ref="F28:T28" si="7">SUM(F7:F27)</f>
-        <v>3530</v>
+        <v>3730</v>
       </c>
       <c r="G28" s="99">
         <f t="shared" si="7"/>
@@ -56107,11 +56110,11 @@
       </c>
       <c r="H28" s="99">
         <f t="shared" si="7"/>
-        <v>6050</v>
+        <v>6230</v>
       </c>
       <c r="I28" s="99">
         <f t="shared" si="7"/>
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="J28" s="99">
         <f t="shared" si="7"/>
@@ -56119,7 +56122,7 @@
       </c>
       <c r="K28" s="99">
         <f t="shared" si="7"/>
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="L28" s="99">
         <f t="shared" si="7"/>
@@ -56127,15 +56130,15 @@
       </c>
       <c r="M28" s="99">
         <f t="shared" si="7"/>
-        <v>1426451</v>
+        <v>1509305</v>
       </c>
       <c r="N28" s="99">
         <f t="shared" si="7"/>
-        <v>1661293</v>
+        <v>1747713</v>
       </c>
       <c r="O28" s="100">
         <f t="shared" si="7"/>
-        <v>39227.402500000004</v>
+        <v>41505.887499999997</v>
       </c>
       <c r="P28" s="99">
         <f t="shared" si="7"/>
@@ -56143,19 +56146,19 @@
       </c>
       <c r="Q28" s="99">
         <f t="shared" si="7"/>
-        <v>12818</v>
+        <v>13521</v>
       </c>
       <c r="R28" s="99">
         <f t="shared" si="7"/>
-        <v>1609247.5974999999</v>
+        <v>1692686.1125</v>
       </c>
       <c r="S28" s="99">
         <f t="shared" si="7"/>
-        <v>13551.284499999998</v>
+        <v>14338.397499999999</v>
       </c>
       <c r="T28" s="101">
         <f t="shared" si="7"/>
-        <v>733.28449999999964</v>
+        <v>817.39749999999992</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -56166,15 +56169,15 @@
       <c r="C29" s="237"/>
       <c r="D29" s="102">
         <f>D4+D5-D28</f>
-        <v>642008</v>
+        <v>563774</v>
       </c>
       <c r="E29" s="102">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>2400</v>
+        <v>2350</v>
       </c>
       <c r="F29" s="102">
         <f t="shared" si="8"/>
-        <v>7080</v>
+        <v>6880</v>
       </c>
       <c r="G29" s="102">
         <f t="shared" si="8"/>
@@ -56182,11 +56185,11 @@
       </c>
       <c r="H29" s="102">
         <f t="shared" si="8"/>
-        <v>27310</v>
+        <v>27130</v>
       </c>
       <c r="I29" s="102">
         <f t="shared" si="8"/>
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="J29" s="102">
         <f t="shared" si="8"/>
@@ -56194,7 +56197,7 @@
       </c>
       <c r="K29" s="102">
         <f t="shared" si="8"/>
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="L29" s="102">
         <f t="shared" si="8"/>
@@ -56489,15 +56492,15 @@
       <c r="A1" s="119"/>
     </row>
     <row r="2" spans="1:87" s="124" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="270" t="s">
+      <c r="A2" s="253" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="270"/>
-      <c r="C2" s="271" t="s">
+      <c r="B2" s="253"/>
+      <c r="C2" s="254" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="271"/>
-      <c r="E2" s="271"/>
+      <c r="D2" s="254"/>
+      <c r="E2" s="254"/>
       <c r="F2" s="121"/>
       <c r="G2" s="121"/>
       <c r="H2" s="121"/>
@@ -56581,400 +56584,400 @@
       <c r="CH2" s="123"/>
     </row>
     <row r="3" spans="1:87" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="272" t="s">
+      <c r="A3" s="255" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="273" t="s">
+      <c r="B3" s="256" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="274" t="s">
+      <c r="C3" s="257" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="275" t="s">
+      <c r="D3" s="258" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="276" t="s">
+      <c r="E3" s="259" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="263" t="s">
+      <c r="F3" s="260" t="s">
         <v>70</v>
       </c>
-      <c r="G3" s="260">
+      <c r="G3" s="261">
         <v>1</v>
       </c>
-      <c r="H3" s="260"/>
-      <c r="I3" s="269" t="s">
+      <c r="H3" s="261"/>
+      <c r="I3" s="262" t="s">
         <v>71</v>
       </c>
-      <c r="J3" s="266">
+      <c r="J3" s="251">
         <v>153</v>
       </c>
-      <c r="K3" s="267"/>
-      <c r="L3" s="265" t="s">
+      <c r="K3" s="252"/>
+      <c r="L3" s="263" t="s">
         <v>72</v>
       </c>
-      <c r="M3" s="266">
+      <c r="M3" s="251">
         <v>154</v>
       </c>
-      <c r="N3" s="267"/>
-      <c r="O3" s="265" t="s">
+      <c r="N3" s="252"/>
+      <c r="O3" s="263" t="s">
         <v>73</v>
       </c>
-      <c r="P3" s="266">
+      <c r="P3" s="251">
         <v>155</v>
       </c>
-      <c r="Q3" s="267"/>
-      <c r="R3" s="268" t="s">
+      <c r="Q3" s="252"/>
+      <c r="R3" s="264" t="s">
         <v>74</v>
       </c>
-      <c r="S3" s="260">
+      <c r="S3" s="261">
         <v>157</v>
       </c>
-      <c r="T3" s="260"/>
-      <c r="U3" s="263" t="s">
+      <c r="T3" s="261"/>
+      <c r="U3" s="260" t="s">
         <v>75</v>
       </c>
-      <c r="V3" s="260">
+      <c r="V3" s="261">
         <v>158</v>
       </c>
-      <c r="W3" s="260"/>
-      <c r="X3" s="263" t="s">
+      <c r="W3" s="261"/>
+      <c r="X3" s="260" t="s">
         <v>76</v>
       </c>
-      <c r="Y3" s="260">
+      <c r="Y3" s="261">
         <v>159</v>
       </c>
-      <c r="Z3" s="260"/>
-      <c r="AA3" s="263" t="s">
+      <c r="Z3" s="261"/>
+      <c r="AA3" s="260" t="s">
         <v>77</v>
       </c>
-      <c r="AB3" s="260">
+      <c r="AB3" s="261">
         <v>160</v>
       </c>
-      <c r="AC3" s="260"/>
-      <c r="AD3" s="263" t="s">
+      <c r="AC3" s="261"/>
+      <c r="AD3" s="260" t="s">
         <v>78</v>
       </c>
-      <c r="AE3" s="260">
+      <c r="AE3" s="261">
         <v>161</v>
       </c>
-      <c r="AF3" s="260"/>
-      <c r="AG3" s="263" t="s">
+      <c r="AF3" s="261"/>
+      <c r="AG3" s="260" t="s">
         <v>79</v>
       </c>
-      <c r="AH3" s="260">
+      <c r="AH3" s="261">
         <v>162</v>
       </c>
-      <c r="AI3" s="264"/>
-      <c r="AJ3" s="259" t="s">
+      <c r="AI3" s="265"/>
+      <c r="AJ3" s="266" t="s">
         <v>80</v>
       </c>
-      <c r="AK3" s="260">
+      <c r="AK3" s="261">
         <v>164</v>
       </c>
-      <c r="AL3" s="260"/>
-      <c r="AM3" s="259" t="s">
+      <c r="AL3" s="261"/>
+      <c r="AM3" s="266" t="s">
         <v>81</v>
       </c>
-      <c r="AN3" s="260">
+      <c r="AN3" s="261">
         <v>165</v>
       </c>
-      <c r="AO3" s="260"/>
-      <c r="AP3" s="259" t="s">
+      <c r="AO3" s="261"/>
+      <c r="AP3" s="266" t="s">
         <v>82</v>
       </c>
-      <c r="AQ3" s="260">
+      <c r="AQ3" s="261">
         <v>166</v>
       </c>
-      <c r="AR3" s="260"/>
-      <c r="AS3" s="259" t="s">
+      <c r="AR3" s="261"/>
+      <c r="AS3" s="266" t="s">
         <v>83</v>
       </c>
-      <c r="AT3" s="260">
+      <c r="AT3" s="261">
         <v>167</v>
       </c>
-      <c r="AU3" s="260"/>
-      <c r="AV3" s="259" t="s">
+      <c r="AU3" s="261"/>
+      <c r="AV3" s="266" t="s">
         <v>84</v>
       </c>
-      <c r="AW3" s="260">
+      <c r="AW3" s="261">
         <v>168</v>
       </c>
-      <c r="AX3" s="260"/>
-      <c r="AY3" s="259" t="s">
+      <c r="AX3" s="261"/>
+      <c r="AY3" s="266" t="s">
         <v>85</v>
       </c>
-      <c r="AZ3" s="260">
+      <c r="AZ3" s="261">
         <v>169</v>
       </c>
-      <c r="BA3" s="260"/>
-      <c r="BB3" s="259" t="s">
+      <c r="BA3" s="261"/>
+      <c r="BB3" s="266" t="s">
         <v>86</v>
       </c>
-      <c r="BC3" s="260">
+      <c r="BC3" s="261">
         <v>171</v>
       </c>
-      <c r="BD3" s="260"/>
-      <c r="BE3" s="259" t="s">
+      <c r="BD3" s="261"/>
+      <c r="BE3" s="266" t="s">
         <v>87</v>
       </c>
-      <c r="BF3" s="260">
+      <c r="BF3" s="261">
         <v>172</v>
       </c>
-      <c r="BG3" s="260"/>
-      <c r="BH3" s="259" t="s">
+      <c r="BG3" s="261"/>
+      <c r="BH3" s="266" t="s">
         <v>88</v>
       </c>
-      <c r="BI3" s="260">
+      <c r="BI3" s="261">
         <v>173</v>
       </c>
-      <c r="BJ3" s="260"/>
-      <c r="BK3" s="259" t="s">
+      <c r="BJ3" s="261"/>
+      <c r="BK3" s="266" t="s">
         <v>89</v>
       </c>
-      <c r="BL3" s="260">
+      <c r="BL3" s="261">
         <v>174</v>
       </c>
-      <c r="BM3" s="260"/>
-      <c r="BN3" s="259" t="s">
+      <c r="BM3" s="261"/>
+      <c r="BN3" s="266" t="s">
         <v>90</v>
       </c>
-      <c r="BO3" s="260">
+      <c r="BO3" s="261">
         <v>175</v>
       </c>
-      <c r="BP3" s="260"/>
-      <c r="BQ3" s="259" t="s">
+      <c r="BP3" s="261"/>
+      <c r="BQ3" s="266" t="s">
         <v>91</v>
       </c>
-      <c r="BR3" s="260">
+      <c r="BR3" s="261">
         <v>176</v>
       </c>
-      <c r="BS3" s="260"/>
-      <c r="BT3" s="259" t="s">
+      <c r="BS3" s="261"/>
+      <c r="BT3" s="266" t="s">
         <v>92</v>
       </c>
-      <c r="BU3" s="261">
+      <c r="BU3" s="267">
         <v>178</v>
       </c>
-      <c r="BV3" s="261"/>
-      <c r="BW3" s="259" t="s">
+      <c r="BV3" s="267"/>
+      <c r="BW3" s="266" t="s">
         <v>93</v>
       </c>
-      <c r="BX3" s="262">
+      <c r="BX3" s="268">
         <v>179</v>
       </c>
-      <c r="BY3" s="262"/>
-      <c r="BZ3" s="259" t="s">
+      <c r="BY3" s="268"/>
+      <c r="BZ3" s="266" t="s">
         <v>94</v>
       </c>
-      <c r="CA3" s="260">
+      <c r="CA3" s="261">
         <v>180</v>
       </c>
-      <c r="CB3" s="260"/>
-      <c r="CC3" s="259" t="s">
+      <c r="CB3" s="261"/>
+      <c r="CC3" s="266" t="s">
         <v>95</v>
       </c>
-      <c r="CD3" s="260">
+      <c r="CD3" s="261">
         <v>181</v>
       </c>
-      <c r="CE3" s="260"/>
-      <c r="CF3" s="259" t="s">
+      <c r="CE3" s="261"/>
+      <c r="CF3" s="266" t="s">
         <v>96</v>
       </c>
-      <c r="CG3" s="260">
+      <c r="CG3" s="261">
         <v>182</v>
       </c>
-      <c r="CH3" s="260"/>
+      <c r="CH3" s="261"/>
     </row>
     <row r="4" spans="1:87" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="272"/>
-      <c r="B4" s="273"/>
-      <c r="C4" s="274"/>
-      <c r="D4" s="275"/>
-      <c r="E4" s="276"/>
-      <c r="F4" s="263"/>
+      <c r="A4" s="255"/>
+      <c r="B4" s="256"/>
+      <c r="C4" s="257"/>
+      <c r="D4" s="258"/>
+      <c r="E4" s="259"/>
+      <c r="F4" s="260"/>
       <c r="G4" s="125" t="s">
         <v>97</v>
       </c>
       <c r="H4" s="126" t="s">
         <v>98</v>
       </c>
-      <c r="I4" s="269"/>
+      <c r="I4" s="262"/>
       <c r="J4" s="127" t="s">
         <v>97</v>
       </c>
       <c r="K4" s="128" t="s">
         <v>98</v>
       </c>
-      <c r="L4" s="265"/>
+      <c r="L4" s="263"/>
       <c r="M4" s="129" t="s">
         <v>97</v>
       </c>
       <c r="N4" s="130" t="s">
         <v>98</v>
       </c>
-      <c r="O4" s="265"/>
+      <c r="O4" s="263"/>
       <c r="P4" s="129" t="s">
         <v>97</v>
       </c>
       <c r="Q4" s="130" t="s">
         <v>98</v>
       </c>
-      <c r="R4" s="268"/>
+      <c r="R4" s="264"/>
       <c r="S4" s="125" t="s">
         <v>97</v>
       </c>
       <c r="T4" s="126" t="s">
         <v>98</v>
       </c>
-      <c r="U4" s="263"/>
+      <c r="U4" s="260"/>
       <c r="V4" s="125" t="s">
         <v>97</v>
       </c>
       <c r="W4" s="126" t="s">
         <v>98</v>
       </c>
-      <c r="X4" s="263"/>
+      <c r="X4" s="260"/>
       <c r="Y4" s="125" t="s">
         <v>97</v>
       </c>
       <c r="Z4" s="126" t="s">
         <v>98</v>
       </c>
-      <c r="AA4" s="263"/>
+      <c r="AA4" s="260"/>
       <c r="AB4" s="125" t="s">
         <v>97</v>
       </c>
       <c r="AC4" s="131" t="s">
         <v>98</v>
       </c>
-      <c r="AD4" s="263"/>
+      <c r="AD4" s="260"/>
       <c r="AE4" s="132" t="s">
         <v>97</v>
       </c>
       <c r="AF4" s="126" t="s">
         <v>98</v>
       </c>
-      <c r="AG4" s="263"/>
+      <c r="AG4" s="260"/>
       <c r="AH4" s="132" t="s">
         <v>97</v>
       </c>
       <c r="AI4" s="126" t="s">
         <v>98</v>
       </c>
-      <c r="AJ4" s="259"/>
+      <c r="AJ4" s="266"/>
       <c r="AK4" s="125" t="s">
         <v>97</v>
       </c>
       <c r="AL4" s="126" t="s">
         <v>98</v>
       </c>
-      <c r="AM4" s="259"/>
+      <c r="AM4" s="266"/>
       <c r="AN4" s="125" t="s">
         <v>97</v>
       </c>
       <c r="AO4" s="126" t="s">
         <v>98</v>
       </c>
-      <c r="AP4" s="259"/>
+      <c r="AP4" s="266"/>
       <c r="AQ4" s="125" t="s">
         <v>97</v>
       </c>
       <c r="AR4" s="126" t="s">
         <v>98</v>
       </c>
-      <c r="AS4" s="259"/>
+      <c r="AS4" s="266"/>
       <c r="AT4" s="125" t="s">
         <v>97</v>
       </c>
       <c r="AU4" s="126" t="s">
         <v>98</v>
       </c>
-      <c r="AV4" s="259"/>
+      <c r="AV4" s="266"/>
       <c r="AW4" s="125" t="s">
         <v>97</v>
       </c>
       <c r="AX4" s="126" t="s">
         <v>98</v>
       </c>
-      <c r="AY4" s="259"/>
+      <c r="AY4" s="266"/>
       <c r="AZ4" s="125" t="s">
         <v>97</v>
       </c>
       <c r="BA4" s="126" t="s">
         <v>98</v>
       </c>
-      <c r="BB4" s="259"/>
+      <c r="BB4" s="266"/>
       <c r="BC4" s="125" t="s">
         <v>97</v>
       </c>
       <c r="BD4" s="126" t="s">
         <v>98</v>
       </c>
-      <c r="BE4" s="259"/>
+      <c r="BE4" s="266"/>
       <c r="BF4" s="125" t="s">
         <v>97</v>
       </c>
       <c r="BG4" s="126" t="s">
         <v>98</v>
       </c>
-      <c r="BH4" s="259"/>
+      <c r="BH4" s="266"/>
       <c r="BI4" s="125" t="s">
         <v>97</v>
       </c>
       <c r="BJ4" s="126" t="s">
         <v>98</v>
       </c>
-      <c r="BK4" s="259"/>
+      <c r="BK4" s="266"/>
       <c r="BL4" s="125" t="s">
         <v>97</v>
       </c>
       <c r="BM4" s="126" t="s">
         <v>98</v>
       </c>
-      <c r="BN4" s="259"/>
+      <c r="BN4" s="266"/>
       <c r="BO4" s="125" t="s">
         <v>97</v>
       </c>
       <c r="BP4" s="126" t="s">
         <v>98</v>
       </c>
-      <c r="BQ4" s="259"/>
+      <c r="BQ4" s="266"/>
       <c r="BR4" s="125" t="s">
         <v>97</v>
       </c>
       <c r="BS4" s="126" t="s">
         <v>98</v>
       </c>
-      <c r="BT4" s="259"/>
+      <c r="BT4" s="266"/>
       <c r="BU4" s="125" t="s">
         <v>97</v>
       </c>
       <c r="BV4" s="126" t="s">
         <v>98</v>
       </c>
-      <c r="BW4" s="259"/>
+      <c r="BW4" s="266"/>
       <c r="BX4" s="133" t="s">
         <v>97</v>
       </c>
       <c r="BY4" s="134" t="s">
         <v>98</v>
       </c>
-      <c r="BZ4" s="259"/>
+      <c r="BZ4" s="266"/>
       <c r="CA4" s="125" t="s">
         <v>97</v>
       </c>
       <c r="CB4" s="126" t="s">
         <v>98</v>
       </c>
-      <c r="CC4" s="259"/>
+      <c r="CC4" s="266"/>
       <c r="CD4" s="125" t="s">
         <v>97</v>
       </c>
       <c r="CE4" s="126" t="s">
         <v>98</v>
       </c>
-      <c r="CF4" s="259"/>
+      <c r="CF4" s="266"/>
       <c r="CG4" s="125" t="s">
         <v>97</v>
       </c>
@@ -56983,10 +56986,10 @@
       </c>
     </row>
     <row r="5" spans="1:87" s="153" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="254" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="256" t="s">
+      <c r="A5" s="269" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="271" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="135" t="s">
@@ -57256,8 +57259,8 @@
       <c r="CH5" s="152"/>
     </row>
     <row r="6" spans="1:87" s="161" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="254"/>
-      <c r="B6" s="257"/>
+      <c r="A6" s="269"/>
+      <c r="B6" s="272"/>
       <c r="C6" s="154" t="s">
         <v>100</v>
       </c>
@@ -57521,8 +57524,8 @@
       <c r="CH6" s="160"/>
     </row>
     <row r="7" spans="1:87" s="171" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="254"/>
-      <c r="B7" s="258" t="s">
+      <c r="A7" s="269"/>
+      <c r="B7" s="273" t="s">
         <v>101</v>
       </c>
       <c r="C7" s="162" t="s">
@@ -57792,8 +57795,8 @@
       <c r="CH7" s="170"/>
     </row>
     <row r="8" spans="1:87" s="161" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="254"/>
-      <c r="B8" s="257"/>
+      <c r="A8" s="269"/>
+      <c r="B8" s="272"/>
       <c r="C8" s="154" t="s">
         <v>100</v>
       </c>
@@ -58055,8 +58058,8 @@
       <c r="CH8" s="160"/>
     </row>
     <row r="9" spans="1:87" s="174" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="254"/>
-      <c r="B9" s="258" t="s">
+      <c r="A9" s="269"/>
+      <c r="B9" s="273" t="s">
         <v>102</v>
       </c>
       <c r="C9" s="135" t="s">
@@ -58329,8 +58332,8 @@
       </c>
     </row>
     <row r="10" spans="1:87" s="161" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="254"/>
-      <c r="B10" s="257"/>
+      <c r="A10" s="269"/>
+      <c r="B10" s="272"/>
       <c r="C10" s="175" t="s">
         <v>100</v>
       </c>
@@ -58592,8 +58595,8 @@
       <c r="CH10" s="160"/>
     </row>
     <row r="11" spans="1:87" s="177" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="254"/>
-      <c r="B11" s="258" t="s">
+      <c r="A11" s="269"/>
+      <c r="B11" s="273" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="135" t="s">
@@ -58863,8 +58866,8 @@
       <c r="CH11" s="152"/>
     </row>
     <row r="12" spans="1:87" s="161" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="254"/>
-      <c r="B12" s="257"/>
+      <c r="A12" s="269"/>
+      <c r="B12" s="272"/>
       <c r="C12" s="154" t="s">
         <v>100</v>
       </c>
@@ -59126,8 +59129,8 @@
       <c r="CH12" s="160"/>
     </row>
     <row r="13" spans="1:87" s="178" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="254"/>
-      <c r="B13" s="258" t="s">
+      <c r="A13" s="269"/>
+      <c r="B13" s="273" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="162" t="s">
@@ -59397,8 +59400,8 @@
       <c r="CH13" s="170"/>
     </row>
     <row r="14" spans="1:87" s="161" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="254"/>
-      <c r="B14" s="257"/>
+      <c r="A14" s="269"/>
+      <c r="B14" s="272"/>
       <c r="C14" s="154" t="s">
         <v>100</v>
       </c>
@@ -59660,8 +59663,8 @@
       <c r="CH14" s="160"/>
     </row>
     <row r="15" spans="1:87" s="177" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="254"/>
-      <c r="B15" s="258" t="s">
+      <c r="A15" s="269"/>
+      <c r="B15" s="273" t="s">
         <v>103</v>
       </c>
       <c r="C15" s="135" t="s">
@@ -59931,8 +59934,8 @@
       <c r="CH15" s="152"/>
     </row>
     <row r="16" spans="1:87" s="161" customFormat="1" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="254"/>
-      <c r="B16" s="257"/>
+      <c r="A16" s="269"/>
+      <c r="B16" s="272"/>
       <c r="C16" s="175" t="s">
         <v>100</v>
       </c>
@@ -60194,8 +60197,8 @@
       <c r="CH16" s="160"/>
     </row>
     <row r="17" spans="1:86" s="174" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="254"/>
-      <c r="B17" s="251" t="s">
+      <c r="A17" s="269"/>
+      <c r="B17" s="274" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="179" t="s">
@@ -60465,8 +60468,8 @@
       <c r="CH17" s="152"/>
     </row>
     <row r="18" spans="1:86" s="161" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="254"/>
-      <c r="B18" s="252"/>
+      <c r="A18" s="269"/>
+      <c r="B18" s="275"/>
       <c r="C18" s="175" t="s">
         <v>100</v>
       </c>
@@ -60728,8 +60731,8 @@
       <c r="CH18" s="160"/>
     </row>
     <row r="19" spans="1:86" s="177" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="254"/>
-      <c r="B19" s="251" t="s">
+      <c r="A19" s="269"/>
+      <c r="B19" s="274" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="179" t="s">
@@ -60999,8 +61002,8 @@
       <c r="CH19" s="152"/>
     </row>
     <row r="20" spans="1:86" s="161" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="254"/>
-      <c r="B20" s="252"/>
+      <c r="A20" s="269"/>
+      <c r="B20" s="275"/>
       <c r="C20" s="175" t="s">
         <v>100</v>
       </c>
@@ -61262,8 +61265,8 @@
       <c r="CH20" s="160"/>
     </row>
     <row r="21" spans="1:86" s="174" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="254"/>
-      <c r="B21" s="251" t="s">
+      <c r="A21" s="269"/>
+      <c r="B21" s="274" t="s">
         <v>31</v>
       </c>
       <c r="C21" s="179" t="s">
@@ -61533,8 +61536,8 @@
       <c r="CH21" s="152"/>
     </row>
     <row r="22" spans="1:86" s="161" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="254"/>
-      <c r="B22" s="252"/>
+      <c r="A22" s="269"/>
+      <c r="B22" s="275"/>
       <c r="C22" s="175" t="s">
         <v>100</v>
       </c>
@@ -61796,8 +61799,8 @@
       <c r="CH22" s="160"/>
     </row>
     <row r="23" spans="1:86" s="177" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="254"/>
-      <c r="B23" s="251" t="s">
+      <c r="A23" s="269"/>
+      <c r="B23" s="274" t="s">
         <v>32</v>
       </c>
       <c r="C23" s="180" t="s">
@@ -62067,8 +62070,8 @@
       <c r="CH23" s="152"/>
     </row>
     <row r="24" spans="1:86" s="161" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="254"/>
-      <c r="B24" s="252"/>
+      <c r="A24" s="269"/>
+      <c r="B24" s="275"/>
       <c r="C24" s="175" t="s">
         <v>100</v>
       </c>
@@ -62330,8 +62333,8 @@
       <c r="CH24" s="160"/>
     </row>
     <row r="25" spans="1:86" s="174" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="254"/>
-      <c r="B25" s="251" t="s">
+      <c r="A25" s="269"/>
+      <c r="B25" s="274" t="s">
         <v>33</v>
       </c>
       <c r="C25" s="179" t="s">
@@ -62601,8 +62604,8 @@
       <c r="CH25" s="152"/>
     </row>
     <row r="26" spans="1:86" s="161" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="254"/>
-      <c r="B26" s="252"/>
+      <c r="A26" s="269"/>
+      <c r="B26" s="275"/>
       <c r="C26" s="175" t="s">
         <v>100</v>
       </c>
@@ -62864,8 +62867,8 @@
       <c r="CH26" s="160"/>
     </row>
     <row r="27" spans="1:86" s="177" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="254"/>
-      <c r="B27" s="251" t="s">
+      <c r="A27" s="269"/>
+      <c r="B27" s="274" t="s">
         <v>52</v>
       </c>
       <c r="C27" s="179" t="s">
@@ -63135,8 +63138,8 @@
       <c r="CH27" s="152"/>
     </row>
     <row r="28" spans="1:86" s="161" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="254"/>
-      <c r="B28" s="252"/>
+      <c r="A28" s="269"/>
+      <c r="B28" s="275"/>
       <c r="C28" s="175" t="s">
         <v>100</v>
       </c>
@@ -63398,8 +63401,8 @@
       <c r="CH28" s="160"/>
     </row>
     <row r="29" spans="1:86" s="174" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="254"/>
-      <c r="B29" s="251" t="s">
+      <c r="A29" s="269"/>
+      <c r="B29" s="274" t="s">
         <v>35</v>
       </c>
       <c r="C29" s="179" t="s">
@@ -63669,8 +63672,8 @@
       <c r="CH29" s="152"/>
     </row>
     <row r="30" spans="1:86" s="161" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="254"/>
-      <c r="B30" s="252"/>
+      <c r="A30" s="269"/>
+      <c r="B30" s="275"/>
       <c r="C30" s="175" t="s">
         <v>100</v>
       </c>
@@ -63932,8 +63935,8 @@
       <c r="CH30" s="160"/>
     </row>
     <row r="31" spans="1:86" s="177" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="254"/>
-      <c r="B31" s="251" t="s">
+      <c r="A31" s="269"/>
+      <c r="B31" s="274" t="s">
         <v>51</v>
       </c>
       <c r="C31" s="179" t="s">
@@ -64203,8 +64206,8 @@
       <c r="CH31" s="152"/>
     </row>
     <row r="32" spans="1:86" s="161" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="254"/>
-      <c r="B32" s="252"/>
+      <c r="A32" s="269"/>
+      <c r="B32" s="275"/>
       <c r="C32" s="175" t="s">
         <v>100</v>
       </c>
@@ -64466,8 +64469,8 @@
       <c r="CH32" s="160"/>
     </row>
     <row r="33" spans="1:86" s="174" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="254"/>
-      <c r="B33" s="251" t="s">
+      <c r="A33" s="269"/>
+      <c r="B33" s="274" t="s">
         <v>50</v>
       </c>
       <c r="C33" s="179" t="s">
@@ -64737,8 +64740,8 @@
       <c r="CH33" s="152"/>
     </row>
     <row r="34" spans="1:86" s="161" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="254"/>
-      <c r="B34" s="252"/>
+      <c r="A34" s="269"/>
+      <c r="B34" s="275"/>
       <c r="C34" s="175" t="s">
         <v>100</v>
       </c>
@@ -65000,8 +65003,8 @@
       <c r="CH34" s="160"/>
     </row>
     <row r="35" spans="1:86" s="177" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="254"/>
-      <c r="B35" s="251" t="s">
+      <c r="A35" s="269"/>
+      <c r="B35" s="274" t="s">
         <v>38</v>
       </c>
       <c r="C35" s="179" t="s">
@@ -65271,8 +65274,8 @@
       <c r="CH35" s="152"/>
     </row>
     <row r="36" spans="1:86" s="161" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="254"/>
-      <c r="B36" s="252"/>
+      <c r="A36" s="269"/>
+      <c r="B36" s="275"/>
       <c r="C36" s="175" t="s">
         <v>100</v>
       </c>
@@ -65534,8 +65537,8 @@
       <c r="CH36" s="160"/>
     </row>
     <row r="37" spans="1:86" s="186" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="254"/>
-      <c r="B37" s="253" t="s">
+      <c r="A37" s="269"/>
+      <c r="B37" s="276" t="s">
         <v>39</v>
       </c>
       <c r="C37" s="181" t="s">
@@ -65805,8 +65808,8 @@
       <c r="CH37" s="185"/>
     </row>
     <row r="38" spans="1:86" s="93" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="254"/>
-      <c r="B38" s="253"/>
+      <c r="A38" s="269"/>
+      <c r="B38" s="276"/>
       <c r="C38" s="187" t="s">
         <v>100</v>
       </c>
@@ -66068,8 +66071,8 @@
       <c r="CH38" s="191"/>
     </row>
     <row r="39" spans="1:86" s="177" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="254"/>
-      <c r="B39" s="251" t="s">
+      <c r="A39" s="269"/>
+      <c r="B39" s="274" t="s">
         <v>40</v>
       </c>
       <c r="C39" s="179" t="s">
@@ -66339,8 +66342,8 @@
       <c r="CH39" s="152"/>
     </row>
     <row r="40" spans="1:86" s="161" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="254"/>
-      <c r="B40" s="252"/>
+      <c r="A40" s="269"/>
+      <c r="B40" s="275"/>
       <c r="C40" s="175" t="s">
         <v>100</v>
       </c>
@@ -66602,8 +66605,8 @@
       <c r="CH40" s="160"/>
     </row>
     <row r="41" spans="1:86" s="186" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="254"/>
-      <c r="B41" s="253" t="s">
+      <c r="A41" s="269"/>
+      <c r="B41" s="276" t="s">
         <v>41</v>
       </c>
       <c r="C41" s="181" t="s">
@@ -66873,8 +66876,8 @@
       <c r="CH41" s="185"/>
     </row>
     <row r="42" spans="1:86" s="93" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="254"/>
-      <c r="B42" s="253"/>
+      <c r="A42" s="269"/>
+      <c r="B42" s="276"/>
       <c r="C42" s="187" t="s">
         <v>100</v>
       </c>
@@ -67136,8 +67139,8 @@
       <c r="CH42" s="191"/>
     </row>
     <row r="43" spans="1:86" s="177" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="254"/>
-      <c r="B43" s="251" t="s">
+      <c r="A43" s="269"/>
+      <c r="B43" s="274" t="s">
         <v>49</v>
       </c>
       <c r="C43" s="179" t="s">
@@ -67409,8 +67412,8 @@
       <c r="CH43" s="152"/>
     </row>
     <row r="44" spans="1:86" s="199" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="254"/>
-      <c r="B44" s="252"/>
+      <c r="A44" s="269"/>
+      <c r="B44" s="275"/>
       <c r="C44" s="187" t="s">
         <v>100</v>
       </c>
@@ -67672,8 +67675,8 @@
       <c r="CH44" s="191"/>
     </row>
     <row r="45" spans="1:86" s="200" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="254"/>
-      <c r="B45" s="251" t="s">
+      <c r="A45" s="269"/>
+      <c r="B45" s="274" t="s">
         <v>43</v>
       </c>
       <c r="C45" s="179" t="s">
@@ -67943,8 +67946,8 @@
       <c r="CH45" s="152"/>
     </row>
     <row r="46" spans="1:86" s="208" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="255"/>
-      <c r="B46" s="252"/>
+      <c r="A46" s="270"/>
+      <c r="B46" s="275"/>
       <c r="C46" s="175" t="s">
         <v>100</v>
       </c>
@@ -68215,67 +68218,12 @@
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="AW3:AX3"/>
-    <mergeCell ref="AG3:AG4"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AJ3:AJ4"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AM4"/>
-    <mergeCell ref="AN3:AO3"/>
-    <mergeCell ref="AP3:AP4"/>
-    <mergeCell ref="AQ3:AR3"/>
-    <mergeCell ref="AS3:AS4"/>
-    <mergeCell ref="AT3:AU3"/>
-    <mergeCell ref="AV3:AV4"/>
-    <mergeCell ref="BO3:BP3"/>
-    <mergeCell ref="AY3:AY4"/>
-    <mergeCell ref="AZ3:BA3"/>
-    <mergeCell ref="BB3:BB4"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="BE3:BE4"/>
-    <mergeCell ref="BF3:BG3"/>
-    <mergeCell ref="BH3:BH4"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="BK3:BK4"/>
-    <mergeCell ref="BL3:BM3"/>
-    <mergeCell ref="BN3:BN4"/>
-    <mergeCell ref="CG3:CH3"/>
-    <mergeCell ref="BQ3:BQ4"/>
-    <mergeCell ref="BR3:BS3"/>
-    <mergeCell ref="BT3:BT4"/>
-    <mergeCell ref="BU3:BV3"/>
-    <mergeCell ref="BW3:BW4"/>
-    <mergeCell ref="BX3:BY3"/>
-    <mergeCell ref="BZ3:BZ4"/>
-    <mergeCell ref="CA3:CB3"/>
-    <mergeCell ref="CC3:CC4"/>
-    <mergeCell ref="CD3:CE3"/>
-    <mergeCell ref="CF3:CF4"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B42"/>
     <mergeCell ref="A5:A46"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B7:B8"/>
@@ -68292,12 +68240,67 @@
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="CG3:CH3"/>
+    <mergeCell ref="BQ3:BQ4"/>
+    <mergeCell ref="BR3:BS3"/>
+    <mergeCell ref="BT3:BT4"/>
+    <mergeCell ref="BU3:BV3"/>
+    <mergeCell ref="BW3:BW4"/>
+    <mergeCell ref="BX3:BY3"/>
+    <mergeCell ref="BZ3:BZ4"/>
+    <mergeCell ref="CA3:CB3"/>
+    <mergeCell ref="CC3:CC4"/>
+    <mergeCell ref="CD3:CE3"/>
+    <mergeCell ref="CF3:CF4"/>
+    <mergeCell ref="BO3:BP3"/>
+    <mergeCell ref="AY3:AY4"/>
+    <mergeCell ref="AZ3:BA3"/>
+    <mergeCell ref="BB3:BB4"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="BE3:BE4"/>
+    <mergeCell ref="BF3:BG3"/>
+    <mergeCell ref="BH3:BH4"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="BK3:BK4"/>
+    <mergeCell ref="BL3:BM3"/>
+    <mergeCell ref="BN3:BN4"/>
+    <mergeCell ref="AW3:AX3"/>
+    <mergeCell ref="AG3:AG4"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AJ3:AJ4"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AM4"/>
+    <mergeCell ref="AN3:AO3"/>
+    <mergeCell ref="AP3:AP4"/>
+    <mergeCell ref="AQ3:AR3"/>
+    <mergeCell ref="AS3:AS4"/>
+    <mergeCell ref="AT3:AU3"/>
+    <mergeCell ref="AV3:AV4"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:L4"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:XFD4 D6 D4:E4 B3:XFD3 B4 B5:XFD5 K6 I6:J46 H6 E6:G46 N6 L6:M46 Q6 O6:P46 T6 R6:S46 W6 U6:U46 V6:V48 Z6 X6:Y46 AC6 AA6:AB46 AF6 AD6:AE46 AI6 AG6:AH46 AL6 AJ6:AK46 AO6 AM6:AN46 AR6 AP6:AQ46 AU6 AS6:AT46 AX6 AV6:AW46 BA6 AY6:AZ46 BD6 BB6:BC46 BG6 BE6:BF46 BJ6 BH6:BI46 BM6 BK6:BL46 BP6 BN6:BO46 BS6 BQ6:BR46 BV6 BT6:BU46 BY6 BW6:BX46 CB6 BZ6:CA46 CE6 CC6:CD46 CH6:XFD6 CF6:CG46">
     <cfRule type="timePeriod" dxfId="56" priority="51" timePeriod="thisMonth">
@@ -75181,9 +75184,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -76886,9 +76889,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -76951,7 +76954,7 @@
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="221" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="B3" s="222"/>
       <c r="C3" s="223"/>
@@ -77120,40 +77123,46 @@
       <c r="C7" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="21">
+        <v>11621</v>
+      </c>
       <c r="E7" s="22"/>
       <c r="F7" s="22"/>
       <c r="G7" s="22"/>
       <c r="H7" s="22"/>
       <c r="I7" s="23"/>
       <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
+      <c r="K7" s="23">
+        <v>5</v>
+      </c>
       <c r="L7" s="23"/>
       <c r="M7" s="20">
         <f>D7+E7*20+F7*10+G7*9+H7*9</f>
-        <v>0</v>
+        <v>11621</v>
       </c>
       <c r="N7" s="24">
         <f>D7+E7*20+F7*10+G7*9+H7*9+I7*191+J7*191+K7*182+L7*100</f>
-        <v>0</v>
+        <v>12531</v>
       </c>
       <c r="O7" s="25">
         <f>M7*2.75%</f>
-        <v>0</v>
+        <v>319.57749999999999</v>
       </c>
       <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
+      <c r="Q7" s="26">
+        <v>102</v>
+      </c>
       <c r="R7" s="24">
         <f>M7-(M7*2.75%)+I7*191+J7*191+K7*182+L7*100-Q7</f>
-        <v>0</v>
+        <v>12109.422500000001</v>
       </c>
       <c r="S7" s="25">
         <f>M7*0.95%</f>
-        <v>0</v>
+        <v>110.3995</v>
       </c>
       <c r="T7" s="27">
         <f>S7-Q7</f>
-        <v>0</v>
+        <v>8.3995000000000033</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -77212,40 +77221,48 @@
       <c r="C9" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="29"/>
+      <c r="D9" s="29">
+        <v>17246</v>
+      </c>
       <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
+      <c r="F9" s="30">
+        <v>100</v>
+      </c>
       <c r="G9" s="30"/>
       <c r="H9" s="30"/>
-      <c r="I9" s="20"/>
+      <c r="I9" s="20">
+        <v>2</v>
+      </c>
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
       <c r="L9" s="20"/>
       <c r="M9" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18246</v>
       </c>
       <c r="N9" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18628</v>
       </c>
       <c r="O9" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>501.76499999999999</v>
       </c>
       <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
+      <c r="Q9" s="26">
+        <v>166</v>
+      </c>
       <c r="R9" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>17960.235000000001</v>
       </c>
       <c r="S9" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>173.33699999999999</v>
       </c>
       <c r="T9" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>7.3369999999999891</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -77442,7 +77459,9 @@
       <c r="C14" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="29"/>
+      <c r="D14" s="29">
+        <v>19576</v>
+      </c>
       <c r="E14" s="30"/>
       <c r="F14" s="30"/>
       <c r="G14" s="30"/>
@@ -77453,29 +77472,31 @@
       <c r="L14" s="20"/>
       <c r="M14" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19576</v>
       </c>
       <c r="N14" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19576</v>
       </c>
       <c r="O14" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>538.34</v>
       </c>
       <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
+      <c r="Q14" s="26">
+        <v>138</v>
+      </c>
       <c r="R14" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>18899.66</v>
       </c>
       <c r="S14" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>185.97200000000001</v>
       </c>
       <c r="T14" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>47.972000000000008</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -77534,40 +77555,50 @@
       <c r="C16" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
+      <c r="D16" s="29">
+        <v>7662</v>
+      </c>
+      <c r="E16" s="30">
+        <v>50</v>
+      </c>
+      <c r="F16" s="30">
+        <v>100</v>
+      </c>
       <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
+      <c r="H16" s="30">
+        <v>180</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
       <c r="K16" s="20"/>
       <c r="L16" s="20"/>
       <c r="M16" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11282</v>
       </c>
       <c r="N16" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11282</v>
       </c>
       <c r="O16" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>310.255</v>
       </c>
       <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
+      <c r="Q16" s="26">
+        <v>100</v>
+      </c>
       <c r="R16" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10871.745000000001</v>
       </c>
       <c r="S16" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>107.179</v>
       </c>
       <c r="T16" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>7.179000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -77672,7 +77703,9 @@
       <c r="C19" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="29"/>
+      <c r="D19" s="29">
+        <v>7915</v>
+      </c>
       <c r="E19" s="30"/>
       <c r="F19" s="30"/>
       <c r="G19" s="30"/>
@@ -77683,29 +77716,31 @@
       <c r="L19" s="20"/>
       <c r="M19" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7915</v>
       </c>
       <c r="N19" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7915</v>
       </c>
       <c r="O19" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>217.66249999999999</v>
       </c>
       <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
+      <c r="Q19" s="26">
+        <v>97</v>
+      </c>
       <c r="R19" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7600.3374999999996</v>
       </c>
       <c r="S19" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>75.192499999999995</v>
       </c>
       <c r="T19" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-21.807500000000005</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -77810,40 +77845,48 @@
       <c r="C22" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="29"/>
+      <c r="D22" s="29">
+        <v>14214</v>
+      </c>
       <c r="E22" s="30"/>
       <c r="F22" s="30"/>
       <c r="G22" s="20"/>
       <c r="H22" s="30"/>
-      <c r="I22" s="20"/>
+      <c r="I22" s="20">
+        <v>10</v>
+      </c>
       <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
+      <c r="K22" s="20">
+        <v>2</v>
+      </c>
       <c r="L22" s="20"/>
       <c r="M22" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14214</v>
       </c>
       <c r="N22" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16488</v>
       </c>
       <c r="O22" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>390.88499999999999</v>
       </c>
       <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
+      <c r="Q22" s="26">
+        <v>100</v>
+      </c>
       <c r="R22" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>15997.115</v>
       </c>
       <c r="S22" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>135.03299999999999</v>
       </c>
       <c r="T22" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>35.032999999999987</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -78084,15 +78127,15 @@
       <c r="C28" s="213"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
-        <v>0</v>
+        <v>78234</v>
       </c>
       <c r="E28" s="45">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F28" s="45">
         <f t="shared" ref="F28:T28" si="7">SUM(F7:F27)</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G28" s="45">
         <f t="shared" si="7"/>
@@ -78100,11 +78143,11 @@
       </c>
       <c r="H28" s="45">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="I28" s="45">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J28" s="45">
         <f t="shared" si="7"/>
@@ -78112,7 +78155,7 @@
       </c>
       <c r="K28" s="45">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L28" s="45">
         <f t="shared" si="7"/>
@@ -78120,15 +78163,15 @@
       </c>
       <c r="M28" s="45">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>82854</v>
       </c>
       <c r="N28" s="45">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>86420</v>
       </c>
       <c r="O28" s="46">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2278.4849999999997</v>
       </c>
       <c r="P28" s="45">
         <f t="shared" si="7"/>
@@ -78136,19 +78179,19 @@
       </c>
       <c r="Q28" s="45">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>703</v>
       </c>
       <c r="R28" s="45">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>83438.515000000014</v>
       </c>
       <c r="S28" s="45">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>787.11299999999994</v>
       </c>
       <c r="T28" s="47">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>84.112999999999985</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -78159,15 +78202,15 @@
       <c r="C29" s="216"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>642008</v>
+        <v>563774</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>2400</v>
+        <v>2350</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>7080</v>
+        <v>6880</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -78175,11 +78218,11 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>27310</v>
+        <v>27130</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
@@ -78187,7 +78230,7 @@
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
